--- a/현대물리실험/전자의비전하/DATA.xlsx
+++ b/현대물리실험/전자의비전하/DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jeonghyun\GIT\SNU_PJH\현대물리실험\전자의비전하\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RFSoC\GIT\SNU_PJH\현대물리실험\전자의비전하\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A52CC44-1A06-459F-AEF0-2C94F29BB08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCC2376-9EA9-4E82-AF06-B23DE8BC12EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{BBF9A46C-370E-4953-A036-D7BBED517044}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615" xr2:uid="{BBF9A46C-370E-4953-A036-D7BBED517044}"/>
   </bookViews>
   <sheets>
     <sheet name="150V" sheetId="1" r:id="rId1"/>
@@ -20,30 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -2453,19 +2442,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF226052-45EC-4CD1-AAFF-AD32E026D0B8}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.25" customWidth="1"/>
     <col min="17" max="18" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2492,7 +2481,7 @@
         <v>7.7999999999999999E-4</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2517,7 +2506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>5</v>
       </c>
@@ -2540,7 +2529,7 @@
         <v>1.1192751037176276E-9</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>6.5</v>
       </c>
@@ -2559,7 +2548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>7.5</v>
       </c>
@@ -2575,7 +2564,7 @@
         <v>0.90702947845804982</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>5.3</v>
       </c>
@@ -2594,7 +2583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4.8</v>
       </c>
@@ -2618,7 +2607,7 @@
         <v>1043392504930.9662</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>8.5</v>
       </c>
@@ -2642,13 +2631,13 @@
         <v>2280078895463.5107</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2667,7 +2656,7 @@
         <v>0.31561671506122962</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>5.9</v>
       </c>
@@ -2683,7 +2672,7 @@
         <v>0.3763784862057285</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>6.1</v>
       </c>
@@ -2699,7 +2688,7 @@
         <v>0.42718612499466019</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>6.5</v>
       </c>
@@ -2715,7 +2704,7 @@
         <v>0.48225308641975312</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>6.9</v>
       </c>
@@ -2731,7 +2720,7 @@
         <v>0.55691690799732674</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>7.1</v>
       </c>
@@ -2747,7 +2736,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>7.8</v>
       </c>
@@ -2763,37 +2752,37 @@
         <v>0.7561436672967865</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D26" s="2">
         <f>176.22*8*150/(7.8*7.8*0.00000001)</f>
         <v>347573964497.04144</v>
       </c>
       <c r="E26" s="1">
-        <f>D26/2.25</f>
-        <v>154477317554.24063</v>
+        <f>D26/1.06</f>
+        <v>327899966506.64288</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D27" s="2">
         <f>143.52*8*200/(7.8*7.8*0.00000001)</f>
         <v>377435897435.89752</v>
@@ -2803,7 +2792,7 @@
         <v>167749287749.28778</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>17</v>
       </c>
@@ -2815,6 +2804,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>